--- a/biology/Zoologie/Chelonoidis_phantasticus/Chelonoidis_phantasticus.xlsx
+++ b/biology/Zoologie/Chelonoidis_phantasticus/Chelonoidis_phantasticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chelonoidis phantasticus est une espèce de tortues géantes, de la famille des Testudinidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chelonoidis phantasticus est une espèce de tortues géantes, de la famille des Testudinidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Fernandina, aux Galápagos[2].
-Alors que l'espèce était considérée comme éteinte depuis une centaine d'années[a], une femelle adulte (surnommée Fernanda) a été découverte en février 2019 sur l'île[4] et authentifiée en 2022. Sa population est estimée à une cinquantaine d’individus[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Fernandina, aux Galápagos.
+Alors que l'espèce était considérée comme éteinte depuis une centaine d'années[a], une femelle adulte (surnommée Fernanda) a été découverte en février 2019 sur l'île et authentifiée en 2022. Sa population est estimée à une cinquantaine d’individus,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait partie du complexe d'espèces des tortues géantes des Galápagos. Elle est parfois considérée comme une sous-espèce de Chelonoidis nigra. Ayant été considéré comme éteinte, Chelonoidis phantasticus est un taxon Lazare.
 </t>
